--- a/data/income_statement/1digit/size/N_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/N_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>N-Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>N-Administrative and support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1481 +841,1671 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3170488.18567</v>
+        <v>3337871.90214</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3585240.323060001</v>
+        <v>3775061.08084</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4245665.633189999</v>
+        <v>4471902.97923</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4505841.972940001</v>
+        <v>4753767.40892</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4967866.68078</v>
+        <v>5262340.74878</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5568204.310349999</v>
+        <v>5920035.51075</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6797625.05559</v>
+        <v>7320220.227990001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6461615.43679</v>
+        <v>7001787.595480002</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8011331.302700001</v>
+        <v>8613619.750830002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15035570.86083</v>
+        <v>16108826.09942</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16371157.64373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18204402.10922</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13209425.422</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2536332.7275</v>
+        <v>2675446.29096</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2836416.30152</v>
+        <v>2994393.55029</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3276143.04494</v>
+        <v>3475967.63268</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3479105.45858</v>
+        <v>3698019.148929999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3860053.393119999</v>
+        <v>4099311.73346</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4271816.851609999</v>
+        <v>4584356.78901</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5077620.81172</v>
+        <v>5531188.423850001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5208634.4574</v>
+        <v>5689003.617239999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5770861.602349999</v>
+        <v>6309502.87687</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11541246.70393</v>
+        <v>12493254.25858</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12937748.18029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14518176.5386</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11073310.039</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>544404.45754</v>
+        <v>559811.5096</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>653378.2052600001</v>
+        <v>669286.5393399999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>847514.8269099999</v>
+        <v>860312.7824000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>907172.0016800002</v>
+        <v>919764.16549</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>993373.4323700001</v>
+        <v>1026822.95668</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1176551.93831</v>
+        <v>1195072.2619</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1567209.80898</v>
+        <v>1600072.0446</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1099385.36927</v>
+        <v>1130488.93598</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2066293.96416</v>
+        <v>2096647.48811</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3190115.434069999</v>
+        <v>3242272.38588</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3097635.60353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3257162.22266</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1736011.986</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>89751.00062999999</v>
+        <v>102614.10158</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>95445.81627999998</v>
+        <v>111380.99121</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>122007.76134</v>
+        <v>135622.56415</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>119564.51268</v>
+        <v>135984.0945</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>114439.85529</v>
+        <v>136206.05864</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>119835.52043</v>
+        <v>140606.45984</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>152794.43489</v>
+        <v>188959.75954</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>153595.61012</v>
+        <v>182295.04226</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>174175.73619</v>
+        <v>207469.38585</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>304208.72283</v>
+        <v>373299.4549599999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>335773.85991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>429063.34796</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>400103.397</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>17979.1183</v>
+        <v>20842.69404</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>17645.23992</v>
+        <v>18752.70239</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>21236.42785</v>
+        <v>24823.85374</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>20038.53522</v>
+        <v>21812.68558</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>23937.86183</v>
+        <v>43787.60995999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>21052.78179</v>
+        <v>23569.3583</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>26440.42274</v>
+        <v>28535.07754</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25457.58701</v>
+        <v>32307.56255</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>23772.76745</v>
+        <v>28629.46212</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>92115.97885000001</v>
+        <v>118500.71482</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>122600.78755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>146037.88645</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>265409.589</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>15733.77726</v>
+        <v>18322.33566</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>15477.72018</v>
+        <v>16362.54033</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>19548.4336</v>
+        <v>22545.03408</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17773.97287</v>
+        <v>19307.78608</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21946.88862</v>
+        <v>23818.30783</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>18069.38996</v>
+        <v>20389.16308999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>24010.77354</v>
+        <v>25864.18308</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>21881.04187</v>
+        <v>28515.34484000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>20765.54285</v>
+        <v>25425.60823</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>83673.23057000003</v>
+        <v>109707.67357</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>110163.55275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>133029.90608</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>247298.679</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1649.02474</v>
+        <v>1841.73424</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1110.25189</v>
+        <v>1230.56866</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1306.82684</v>
+        <v>1511.0687</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1262.76656</v>
+        <v>1393.69862</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1130.32097</v>
+        <v>1303.83857</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2045.62989</v>
+        <v>2188.72301</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>937.8351499999999</v>
+        <v>1087.1567</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>742.8563800000001</v>
+        <v>926.2706099999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2274.64226</v>
+        <v>2422.8068</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5658.878140000001</v>
+        <v>5790.92002</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1979.89746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2216.77984</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>11492.634</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>596.3163000000001</v>
+        <v>678.6241400000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1057.26785</v>
+        <v>1159.5934</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>381.16741</v>
+        <v>767.7509600000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1001.79579</v>
+        <v>1111.20088</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>860.6522400000001</v>
+        <v>18665.46356</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>937.76194</v>
+        <v>991.4722000000002</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1491.81405</v>
+        <v>1583.73776</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2833.68876</v>
+        <v>2865.9471</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>732.58234</v>
+        <v>781.0470899999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2783.87014</v>
+        <v>3002.12123</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10457.33734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10791.20053</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6618.276</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3152509.067369999</v>
+        <v>3317029.208099999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3567595.08314</v>
+        <v>3756308.37845</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4224429.20534</v>
+        <v>4447079.12549</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4485803.437719999</v>
+        <v>4731954.72334</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4943928.818950001</v>
+        <v>5218553.138820001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5547151.52856</v>
+        <v>5896466.15245</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6771184.63285</v>
+        <v>7291685.15045</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6436157.84978</v>
+        <v>6969480.032930001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7987558.535249999</v>
+        <v>8584990.28871</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14943454.88198</v>
+        <v>15990325.3846</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16248556.85618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18058364.22277</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12944015.833</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2554730.30893</v>
+        <v>2664078.84827</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2897448.2842</v>
+        <v>3013667.74548</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3478024.90641</v>
+        <v>3618846.31601</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3691114.08858</v>
+        <v>3849164.976849999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4110862.18258</v>
+        <v>4306835.1955</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4649826.579929999</v>
+        <v>4891713.99235</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5787666.793649999</v>
+        <v>6163871.51772</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5436978.13578</v>
+        <v>5823263.347890001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6898707.755150001</v>
+        <v>7305034.64555</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12748313.76228</v>
+        <v>13551399.75093</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13851899.78103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15282215.12784</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10798217.465</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>76605.38952</v>
+        <v>87985.91862</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>61497.24241000001</v>
+        <v>68082.78743000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>66289.46035000001</v>
+        <v>75453.86378</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>70200.4664</v>
+        <v>82926.55918000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>68405.52368</v>
+        <v>77117.07474</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>107345.81937</v>
+        <v>122002.68252</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>88464.70688</v>
+        <v>105750.49967</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>95029.18814</v>
+        <v>110052.82954</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>235124.03764</v>
+        <v>251214.42407</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>279503.02795</v>
+        <v>315948.52673</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>317459.35518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>387429.76799</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>393095.361</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>589152.28792</v>
+        <v>609577.5147399999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>594754.8098</v>
+        <v>619332.86312</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>647100.1779700001</v>
+        <v>677968.2905</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>778870.6526299999</v>
+        <v>817210.6270699998</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>855552.7980100001</v>
+        <v>901710.61532</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1042218.16512</v>
+        <v>1102847.26644</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1366051.27794</v>
+        <v>1489314.65722</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1473438.27916</v>
+        <v>1559017.84352</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1501335.55597</v>
+        <v>1604323.63326</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2926500.5231</v>
+        <v>3195174.05947</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3228361.207650001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3670517.33005</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3953335.827</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1880498.49399</v>
+        <v>1957372.79459</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2230998.68684</v>
+        <v>2315187.36603</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2754426.95265</v>
+        <v>2854385.4342</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2827015.43455</v>
+        <v>2933207.09741</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3168712.86593</v>
+        <v>3307755.307150001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3482210.28883</v>
+        <v>3644826.56369</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4132353.819280001</v>
+        <v>4361856.538829999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3826559.95365</v>
+        <v>4103116.50416</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5107960.544790001</v>
+        <v>5381408.55581</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9440752.548779998</v>
+        <v>9916241.077359999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10185778.14111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11071471.27063</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6262946.046</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8474.137500000001</v>
+        <v>9142.62032</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>10197.54515</v>
+        <v>11064.7289</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10208.31544</v>
+        <v>11038.72753</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>15027.535</v>
+        <v>15820.69319</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>18190.99496</v>
+        <v>20252.19829</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>18052.30661</v>
+        <v>22037.4797</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>200796.9895499999</v>
+        <v>206949.822</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>41950.71483</v>
+        <v>51076.17067</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>54287.61675000001</v>
+        <v>68088.03241</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>101557.66245</v>
+        <v>124036.08737</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>120301.07709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>152796.75917</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>188840.231</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>597778.75844</v>
+        <v>652950.3598300001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>670146.7989399999</v>
+        <v>742640.6329699999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>746404.2989299999</v>
+        <v>828232.8094800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>794689.3491399999</v>
+        <v>882789.7464899999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>833066.6363700001</v>
+        <v>911717.9433200001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>897324.94863</v>
+        <v>1004752.1601</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>983517.8391999999</v>
+        <v>1127813.63273</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>999179.7139999999</v>
+        <v>1146216.68504</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1088850.7801</v>
+        <v>1279955.64316</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2195141.1197</v>
+        <v>2438925.63367</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2396657.075149999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2776149.09493</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2145798.368</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>587042.1488000001</v>
+        <v>694566.1224799999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>650227.1027099999</v>
+        <v>755873.8440299999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>738036.8085699998</v>
+        <v>863953.1351999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>813498.92269</v>
+        <v>945411.17213</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>867667.95111</v>
+        <v>999592.98625</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>946323.2315</v>
+        <v>1123723.38285</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1054692.98659</v>
+        <v>1273787.06237</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1136128.23682</v>
+        <v>1419340.53025</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1213665.55524</v>
+        <v>1504454.26933</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2215867.71644</v>
+        <v>2543703.96767</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2557500.99727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3088459.84455</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2799270.602</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1791.01561</v>
+        <v>1836.86353</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3827.22116</v>
+        <v>4028.692309999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6481.357010000001</v>
+        <v>6507.041010000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>9238.702790000001</v>
+        <v>9302.758249999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2008.90197</v>
+        <v>2015.62935</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1201.71445</v>
+        <v>1673.94987</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8633.829610000001</v>
+        <v>8751.06228</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1744.81099</v>
+        <v>2107.95578</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4060.04533</v>
+        <v>4270.8934</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5524.67909</v>
+        <v>5621.848510000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1561.86872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3092.222769999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7807.423</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>79389.06812000001</v>
+        <v>85211.22157000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>95929.66554999999</v>
+        <v>102548.65265</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>95715.94606999999</v>
+        <v>103601.29753</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>97745.50982000001</v>
+        <v>107525.47134</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>112326.02174</v>
+        <v>121220.50534</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>131175.97607</v>
+        <v>152564.00355</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>135398.96502</v>
+        <v>155314.81274</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>144501.57896</v>
+        <v>173118.71788</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>163304.01271</v>
+        <v>191100.82216</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>351586.9863699999</v>
+        <v>388622.2851</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>355843.17916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>414859.06934</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>332923.496</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>505862.06507</v>
+        <v>607518.0373800001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>550470.2159999999</v>
+        <v>649296.4990699999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>635839.50549</v>
+        <v>753844.79666</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>706514.7100799999</v>
+        <v>828582.94254</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>753333.0274000001</v>
+        <v>876356.8515600001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>813945.54098</v>
+        <v>969485.4294299999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>910660.1919600001</v>
+        <v>1109721.18735</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>989881.84687</v>
+        <v>1244113.85659</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1046301.4972</v>
+        <v>1309082.55377</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1858756.05098</v>
+        <v>2149459.83406</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2200095.94939</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2670508.552440001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2458539.683</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>10736.60964</v>
+        <v>-41615.76265</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>19919.69623</v>
+        <v>-13233.21106</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>8367.49036</v>
+        <v>-35720.32572</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-18809.57354999999</v>
+        <v>-62621.42564000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-34601.31474</v>
+        <v>-87875.04293000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-48998.28287</v>
+        <v>-118971.22275</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-71175.14739</v>
+        <v>-145973.42964</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-136948.52282</v>
+        <v>-273123.8452100001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-124814.77514</v>
+        <v>-224498.62617</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-20726.59673999999</v>
+        <v>-104778.334</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-160843.92212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-312310.74962</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-653472.2340000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>41181.88705000001</v>
+        <v>181235.31862</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>42918.60535</v>
+        <v>530127.0530300001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>57793.09125</v>
+        <v>302561.90262</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>42136.69671</v>
+        <v>587014.14136</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>59646.20284</v>
+        <v>285191.1798999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>61167.31896</v>
+        <v>294694.14864</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>75726.19338</v>
+        <v>325440.67228</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>68403.02031000001</v>
+        <v>335575.27126</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>74347.37485999998</v>
+        <v>402517.28503</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>353340.35691</v>
+        <v>1259171.34421</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>217350.79838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1098055.13426</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1845468.191</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1229.60874</v>
+        <v>20750.39425</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>579.72025</v>
+        <v>106891.27839</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3472.00733</v>
+        <v>61147.10147</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>698.1139000000001</v>
+        <v>74538.02640999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>903.71739</v>
+        <v>29749.24724</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>252.74983</v>
+        <v>33643.32585</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>927.10609</v>
+        <v>15313.98312</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>214.91044</v>
+        <v>38487.68977</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>547.41027</v>
+        <v>32190.10558</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3583.25073</v>
+        <v>59768.56435</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1370.66322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>49532.37077</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>69860.111</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>54.51885</v>
+        <v>5565.053790000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>294.6557099999999</v>
+        <v>50673.33647</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>251.50394</v>
+        <v>68040.26781999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>10.48178</v>
+        <v>227795.71681</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1255.34164</v>
+        <v>15559.16218</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>883.2074099999999</v>
+        <v>31337.59573</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>216.45872</v>
+        <v>26946.99127</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>335.11898</v>
+        <v>44832.70153999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>492.99973</v>
+        <v>28998.88534</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1159.28946</v>
+        <v>19949.53621</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2136.60264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>46158.86885</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>30752.872</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4048.20866</v>
+        <v>16123.83227</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3607.82893</v>
+        <v>13871.96704</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3792.4198</v>
+        <v>22916.91993</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5223.61122</v>
+        <v>29852.01223</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4346.149939999999</v>
+        <v>36898.82736</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5432.37095</v>
+        <v>38103.66082</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5064.275369999999</v>
+        <v>38442.18199</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6456.580249999999</v>
+        <v>38141.57979</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7375.456389999999</v>
+        <v>50170.20392</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23726.83793</v>
+        <v>113603.23089</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>30618.95001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>124252.09174</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>105124.387</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5371.233470000001</v>
+        <v>5457.369130000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6647.55746</v>
+        <v>7193.586900000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7466.589329999998</v>
+        <v>8113.467559999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7242.874250000001</v>
+        <v>7834.67619</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7689.228279999999</v>
+        <v>7807.423799999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7665.4139</v>
+        <v>10317.32812</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6085.52604</v>
+        <v>10477.91976</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7990.516910000001</v>
+        <v>13136.48109</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>8565.08023</v>
+        <v>15526.68446</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>14593.4384</v>
+        <v>21639.32313</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10879.64234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13106.7907</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10792.235</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>320.18151</v>
+        <v>1639.86929</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>418.01523</v>
+        <v>611.3394300000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>799.5511</v>
+        <v>1269.68189</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>909.3826700000001</v>
+        <v>2087.06221</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>131.66352</v>
+        <v>2784.43981</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>450.0634899999999</v>
+        <v>554.1946199999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>409.57244</v>
+        <v>521.53857</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>477.5809600000001</v>
+        <v>780.28914</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1589.76935</v>
+        <v>5354.75603</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2061.24682</v>
+        <v>2799.344599999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4484.003659999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>37221.40605</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5607.958</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1761.02799</v>
+        <v>5830.934089999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>653.1591300000001</v>
+        <v>1765.8501</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>630.7159799999999</v>
+        <v>7721.04934</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>694.5669099999999</v>
+        <v>4207.28267</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>444.30412</v>
+        <v>1741.63305</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>636.68978</v>
+        <v>6195.95555</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>655.6479899999999</v>
+        <v>3040.15794</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2266.3507</v>
+        <v>4109.44047</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>485.8855800000001</v>
+        <v>8615.497969999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2669.57945</v>
+        <v>6071.6766</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3136.0964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8480.02405</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>29962.805</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>16733.15626</v>
+        <v>83923.96587999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>15819.56173</v>
+        <v>53103.03636</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>28019.60042999999</v>
+        <v>76332.89530000002</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>13119.50174</v>
+        <v>85345.8241</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>25065.70175</v>
+        <v>133419.22072</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>25511.89846</v>
+        <v>102395.80923</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>40709.26621</v>
+        <v>155115.52294</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>25369.20237</v>
+        <v>110103.99188</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>31078.51577</v>
+        <v>194786.49334</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>253588.12843</v>
+        <v>908114.9664100001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>100437.38148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>637370.4916399999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1335275.743</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>48.78036</v>
+        <v>511.85162</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>157.53308</v>
+        <v>331.48923</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>157.12397</v>
+        <v>509.11015</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>103.49067</v>
+        <v>1280.34</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>76.85478000000001</v>
+        <v>410.14985</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>35.52714</v>
+        <v>40.43655</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>73.30431</v>
+        <v>1979.3061</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>29.81827</v>
+        <v>3860.77737</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>12.67263</v>
+        <v>13.35939</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>30.42085</v>
+        <v>1871.08033</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>277.68237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>283.90519</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>136.063</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>17.9138</v>
+        <v>40.70629</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>252.05509</v>
+        <v>294.83477</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>5.16038</v>
+        <v>75.96252</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>120.86022</v>
+        <v>127.72093</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>120.81643</v>
+        <v>268.90323</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>79.29474000000002</v>
+        <v>146.89435</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>19.46195</v>
+        <v>213.65445</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>56.46934</v>
+        <v>155.97801</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>165.26673</v>
+        <v>213.54635</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>123.4382</v>
+        <v>201.73257</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>325.49091</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>350.51428</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>516.2670000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>11597.25741</v>
+        <v>41391.34201000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>14488.51874</v>
+        <v>295390.3343400001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>13198.41899</v>
+        <v>56435.44664</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14013.81335</v>
+        <v>153945.47981</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>19612.42499</v>
+        <v>56552.17266</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20220.10326</v>
+        <v>71958.94782000002</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>21565.57426</v>
+        <v>73389.41614</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>25206.47209</v>
+        <v>81966.3422</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>24034.31818</v>
+        <v>66647.75264999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>51804.72663999999</v>
+        <v>125151.88912</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>63684.28535000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>181298.67099</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>257439.75</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>29139.65673</v>
+        <v>108487.66522</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>28519.33524</v>
+        <v>68850.21707</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>42514.93379999999</v>
+        <v>306167.022</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>25484.23627</v>
+        <v>93373.91014000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>32703.31729999999</v>
+        <v>132257.57481</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>53350.45347</v>
+        <v>149239.43893</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>46994.70600999999</v>
+        <v>207257.10146</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>49551.67083</v>
+        <v>167441.54775</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>49552.38972</v>
+        <v>245537.57635</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>284105.62687</v>
+        <v>1155378.88334</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>128554.01248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1415162.13314</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1648213.097</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5483.550920000001</v>
+        <v>6064.879370000002</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5942.84072</v>
+        <v>6285.980570000002</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>4074.44656</v>
+        <v>4444.192520000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3061.48644</v>
+        <v>4585.40943</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1915.20238</v>
+        <v>2186.89987</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2013.81433</v>
+        <v>3811.661270000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2410.14291</v>
+        <v>6314.42553</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1626.11999</v>
+        <v>5769.217989999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2199.69281</v>
+        <v>6199.24201</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5192.067400000001</v>
+        <v>11791.02564</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6675.672579999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7862.75408</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8882.843999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2815.28121</v>
+        <v>4162.4982</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1292.01721</v>
+        <v>2254.83798</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5468.195489999999</v>
+        <v>6356.91087</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2457.19201</v>
+        <v>3706.96965</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1317.56985</v>
+        <v>2357.8068</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>17835.50666</v>
+        <v>18836.86678</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1065.38566</v>
+        <v>52730.92988</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6606.895030000001</v>
+        <v>9038.607310000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3720.52098</v>
+        <v>4876.273699999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10982.96759</v>
+        <v>13062.94714</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7728.54916</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15563.08562</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13357.361</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>195.99272</v>
+        <v>2605.980579999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>330.78397</v>
+        <v>372.7741</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>191.96693</v>
+        <v>1154.63968</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>271.12547</v>
+        <v>1440.74488</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>140.25151</v>
+        <v>5330.97482</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>735.92566</v>
+        <v>1549.15422</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1176.88858</v>
+        <v>1612.68826</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1597.79231</v>
+        <v>2045.38095</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>219.03295</v>
+        <v>10813.12659</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>981.86886</v>
+        <v>1504.1986</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>850.89095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>920.52898</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>10394.669</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>14553.90251</v>
+        <v>84869.95254</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>15630.7273</v>
+        <v>48571.16165</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>24285.26212</v>
+        <v>88053.40315000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>12468.4354</v>
+        <v>69349.96844</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>20568.77446</v>
+        <v>104890.74395</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23607.43339</v>
+        <v>104459.16609</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>35290.08809</v>
+        <v>130276.41051</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>26750.25608</v>
+        <v>118495.72107</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>28124.02892</v>
+        <v>196580.09945</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>248679.90338</v>
+        <v>1077492.15682</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>93275.26444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>740335.1515700001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1416616.19</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>111.10502</v>
+        <v>619.30253</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>18.97462</v>
+        <v>31.06423</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>190.88449</v>
+        <v>1028.1005</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>74.53061</v>
+        <v>268.31165</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>34.88577</v>
+        <v>62.94261</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>23.14899</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>36.17664</v>
+        <v>148.99265</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>116.21267</v>
+        <v>5852.98936</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.02064</v>
+        <v>1.26423</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>455.91742</v>
+        <v>530.37977</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>74.04128999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>74.32570999999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>87.437</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>91.83098</v>
+        <v>96.18473</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>61.13369</v>
+        <v>66.50637</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>52.85316</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>21.95165</v>
+        <v>29.68664</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>19.75519</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>7.16527</v>
+        <v>40.63619</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2e-05</v>
+        <v>5.14075</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>4e-05</v>
+        <v>0.0003899999999999999</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>2.90548</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>72.2808</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>163.784</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5887.993370000001</v>
+        <v>10068.86727</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5242.857730000001</v>
+        <v>11267.89217</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8251.325050000001</v>
+        <v>205076.92212</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7129.514689999999</v>
+        <v>13992.81945</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8706.878140000003</v>
+        <v>17408.45157</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9127.45917</v>
+        <v>20518.80539</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7016.02411</v>
+        <v>16168.51388</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12854.39471</v>
+        <v>26239.63068</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>15286.18794</v>
+        <v>27064.66489</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17658.04457</v>
+        <v>50843.31772000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>19877.31326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>650334.00638</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>198710.812</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>28734.83413</v>
+        <v>57401.36513999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>22023.04723</v>
+        <v>55853.32511999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>26270.67714</v>
+        <v>124531.08272</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>31085.1458</v>
+        <v>72821.14724999998</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>29892.34302</v>
+        <v>80154.75177</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>33428.15569</v>
+        <v>88664.83919</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>36593.03542</v>
+        <v>109660.73446</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>39081.53580999999</v>
+        <v>105261.97856</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>40170.74679</v>
+        <v>107360.68683</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>132063.43643</v>
+        <v>351018.36231</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>140023.57298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>539915.7654400001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>375656.675</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>26578.25097</v>
+        <v>46105.85852000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>20864.57524</v>
+        <v>37277.57778999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>24809.82188</v>
+        <v>46056.35797</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>29904.82023</v>
+        <v>58453.54684999998</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28232.5915</v>
+        <v>62006.97072999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>32089.02969</v>
+        <v>77549.61931000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>35147.93668</v>
+        <v>99815.25337999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>37536.51896000001</v>
+        <v>95532.17020000002</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>38505.77132</v>
+        <v>101360.98225</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>127753.24484</v>
+        <v>337101.10184</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>136500.35845</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>523658.1348</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>361968.167</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2156.58316</v>
+        <v>11295.50662</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1158.47199</v>
+        <v>18575.74733</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1460.85526</v>
+        <v>78474.72474999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1180.32557</v>
+        <v>14367.6004</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1659.75152</v>
+        <v>18147.78103999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1339.126</v>
+        <v>11115.21988</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1445.09874</v>
+        <v>9845.48108</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1545.01685</v>
+        <v>9729.808359999997</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1664.97547</v>
+        <v>5999.70458</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4310.191589999999</v>
+        <v>13917.26047</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3523.21453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16257.63064</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13688.508</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-5955.994169999999</v>
+        <v>-26269.47439</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>12295.91911</v>
+        <v>392190.2997799999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2625.029329999998</v>
+        <v>-163856.52782</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-33242.25891</v>
+        <v>358197.65833</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-37550.77222</v>
+        <v>-15096.18961000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-74609.57307000001</v>
+        <v>-62181.35223</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-79036.69544</v>
+        <v>-137450.59328</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-157178.70915</v>
+        <v>-210252.10026</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-140190.53679</v>
+        <v>-174879.60432</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-83555.30313</v>
+        <v>-352004.23544</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-212070.7092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1169333.51394</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-831873.8149999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>27899.95552</v>
+        <v>49756.48967</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>29211.26699000001</v>
+        <v>77639.61886999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>31565.68952</v>
+        <v>191745.39942</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>35088.23508</v>
+        <v>74444.07510000003</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>44844.72266</v>
+        <v>81135.08327999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>58809.84712999999</v>
+        <v>129603.65756</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>48040.87542</v>
+        <v>107792.75449</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>64799.78767999999</v>
+        <v>233135.56881</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>64418.91782999999</v>
+        <v>133886.19331</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137662.6083</v>
+        <v>263997.60005</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>191713.28986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>419080.65924</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>624919.152</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>478.2329599999999</v>
+        <v>1748.76704</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>796.3682700000001</v>
+        <v>1261.87584</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>354.30756</v>
+        <v>1006.39969</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1076.27455</v>
+        <v>1272.5387</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>727.1268200000001</v>
+        <v>1590.7009</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>463.65459</v>
+        <v>567.59605</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>650.40982</v>
+        <v>1163.32642</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>853.5722200000002</v>
+        <v>1329.26275</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>263.83418</v>
+        <v>3145.55086</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2078.50096</v>
+        <v>2229.10826</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1106.83204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1651.71933</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3100.178</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>27421.72256</v>
+        <v>48007.72263</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>28414.89872</v>
+        <v>76377.74302999998</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>31211.38196</v>
+        <v>190738.99973</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>34011.96053</v>
+        <v>73171.5364</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44117.59584</v>
+        <v>79544.38238</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>58346.19254</v>
+        <v>129036.06151</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>47390.4656</v>
+        <v>106629.42807</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>63946.21546</v>
+        <v>231806.30606</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>64155.08364999999</v>
+        <v>130740.64245</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>135584.10734</v>
+        <v>261768.49179</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>190606.45782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>417428.93991</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>621818.974</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>34755.78962</v>
+        <v>78721.87267</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>33313.00486000001</v>
+        <v>62492.70106</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>197134.21584</v>
+        <v>304014.62332</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>38868.2372</v>
+        <v>59811.33727</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>42714.45743</v>
+        <v>87555.19165000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>94000.47141000001</v>
+        <v>156952.06874</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>52557.94261</v>
+        <v>85612.14896000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>118506.74083</v>
+        <v>278136.99111</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>56431.27225000001</v>
+        <v>313970.46974</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>242840.23379</v>
+        <v>357081.7783599999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>168600.17706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>322674.7947</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>337421.112</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>671.09878</v>
+        <v>785.1286699999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>565.85414</v>
+        <v>687.3812899999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>596.563</v>
+        <v>6094.955599999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>823.1645299999999</v>
+        <v>1680.01844</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1208.19902</v>
+        <v>5727.29106</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>404.52144</v>
+        <v>814.51945</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1376.7532</v>
+        <v>2426.69984</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1854.16294</v>
+        <v>3057.6957</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1530.23403</v>
+        <v>2531.79051</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3234.94656</v>
+        <v>3983.98321</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2521.1103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2740.5476</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5244.014</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2029.88224</v>
+        <v>2936.21788</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2053.12921</v>
+        <v>2757.82881</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2809.62855</v>
+        <v>5434.690199999998</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2300.54481</v>
+        <v>4272.01437</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4423.911590000001</v>
+        <v>5107.234370000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3805.7305</v>
+        <v>5855.35997</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6015.387029999999</v>
+        <v>9973.77599</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2857.26773</v>
+        <v>4643.24738</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2400.711400000001</v>
+        <v>100536.04787</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3239.24665</v>
+        <v>9656.940130000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12151.98357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>20546.55784</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>60191.899</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>32054.8086</v>
+        <v>75000.52612000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>30694.02151</v>
+        <v>59047.49096</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>193728.02429</v>
+        <v>292484.97752</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35744.52785999999</v>
+        <v>53859.30445999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>37082.34682</v>
+        <v>76720.66622000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>89790.21947000001</v>
+        <v>150282.18932</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>45165.80238</v>
+        <v>73211.67313000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>113795.31016</v>
+        <v>270436.0480299999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>52500.32682000001</v>
+        <v>210902.63136</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>236366.04058</v>
+        <v>343440.85502</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>153927.08319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>299387.68926</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>271985.199</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-12811.82827</v>
+        <v>-55234.85738999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8194.181239999998</v>
+        <v>407337.21759</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-168193.55565</v>
+        <v>-276125.7517199999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-37022.26103</v>
+        <v>372830.3961599999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-35420.50699</v>
+        <v>-21516.29797999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-109800.19735</v>
+        <v>-89529.76341</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-83553.76263</v>
+        <v>-115269.98775</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-210885.6623000001</v>
+        <v>-255253.52256</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-132202.89121</v>
+        <v>-354963.8807500001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-188732.92862</v>
+        <v>-445088.41375</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-188957.5964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1072927.6494</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-544375.775</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18113.86489</v>
+        <v>23272.94316</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>20742.69365</v>
+        <v>30314.51166</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24336.94518</v>
+        <v>32039.88911</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>24899.41576</v>
+        <v>32015.04419</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>25155.85098</v>
+        <v>40216.56991000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27513.42631</v>
+        <v>40833.99535999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29671.60838</v>
+        <v>49187.24729</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>28144.10335</v>
+        <v>45974.35215</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>30290.42505</v>
+        <v>42921.62106</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>84426.31223</v>
+        <v>110480.70299</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>89853.39956000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>133965.93036</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>129527.344</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-30925.69316</v>
+        <v>-78507.80055</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-12548.51241</v>
+        <v>377022.70593</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-192530.5008299999</v>
+        <v>-308165.6408299999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-61921.67679</v>
+        <v>340815.35197</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-60576.35797</v>
+        <v>-61732.86789000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-137313.62366</v>
+        <v>-130363.75877</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-113225.37101</v>
+        <v>-164457.23504</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-239029.76565</v>
+        <v>-301227.87471</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-162493.31626</v>
+        <v>-397885.50181</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-273159.2408499999</v>
+        <v>-555569.11674</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-278810.99596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1206893.57976</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-673903.1189999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>12521</v>
+        <v>13218</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>12871</v>
+        <v>13694</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>13463</v>
+        <v>14383</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>13417</v>
+        <v>14432</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>13674</v>
+        <v>14802</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>14491</v>
+        <v>15854</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>15198</v>
+        <v>16934</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>16033</v>
+        <v>17970</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>17172</v>
+        <v>19221</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21384</v>
+        <v>23779</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26848</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>28499</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>